--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -91,6 +91,12 @@
     <t>AngrySheep</t>
   </si>
   <si>
+    <t>Drax</t>
+  </si>
+  <si>
+    <t>GreenWolf</t>
+  </si>
+  <si>
     <t>GreatCat</t>
   </si>
   <si>
@@ -100,9 +106,6 @@
     <t>GoldSkeleton</t>
   </si>
   <si>
-    <t>Drax</t>
-  </si>
-  <si>
     <t>GreatChick</t>
   </si>
   <si>
@@ -193,6 +196,12 @@
     <t xml:space="preserve"> "AngrySheep</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Drax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Wolf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "GreatCat</t>
   </si>
   <si>
@@ -202,9 +211,6 @@
     <t xml:space="preserve"> "GoldSkeleton</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Drax</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "GreatChick</t>
   </si>
   <si>
@@ -256,9 +262,6 @@
     <t xml:space="preserve"> "Astro</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Wolf</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "GhostMinion</t>
   </si>
   <si>
@@ -325,6 +328,9 @@
     <t xml:space="preserve"> 125</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 100</t>
   </si>
   <si>
@@ -337,9 +343,6 @@
     <t xml:space="preserve"> 75</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 40</t>
   </si>
   <si>
@@ -361,34 +364,34 @@
     <t xml:space="preserve"> 0</t>
   </si>
   <si>
+    <t xml:space="preserve"> "HumanAttack1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "AngryCat</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "MonsterAttack2</t>
   </si>
   <si>
-    <t xml:space="preserve"> "HumanAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
     <t xml:space="preserve"> "PainSqueek</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Ow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterHurt3</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
     <t xml:space="preserve"> "MonsterHurt2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Ow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterHurt3</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.0</t>
@@ -821,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,13 +909,13 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -930,19 +933,19 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V2">
         <v>100</v>
@@ -962,55 +965,73 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>60</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
         <v>126</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="P3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" t="s">
+        <v>149</v>
       </c>
       <c r="V3">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1018,73 +1039,55 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4">
-        <v>55</v>
-      </c>
       <c r="G4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N4" t="s">
         <v>127</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T4" t="s">
-        <v>146</v>
-      </c>
-      <c r="U4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="V4">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="W4">
-        <v>0.8802816901408451</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="X4">
-        <v>0.6188118811881188</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="Y4">
-        <v>0.4225352112676056</v>
+        <v>0.4464285714285715</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1092,55 +1095,55 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>60</v>
       </c>
       <c r="J5">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O5" t="s">
         <v>132</v>
       </c>
       <c r="V5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W5">
-        <v>0.9166666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>0.6111111111111112</v>
+        <v>0.25</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1148,25 +1151,25 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J6">
         <v>125</v>
@@ -1175,46 +1178,46 @@
         <v>103</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R6" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="S6" t="s">
         <v>144</v>
       </c>
       <c r="T6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V6">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="W6">
-        <v>1.25</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="X6">
-        <v>0.625</v>
+        <v>0.6188118811881188</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.4225352112676056</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1222,55 +1225,55 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>50</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7">
         <v>120</v>
       </c>
-      <c r="N7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" t="s">
-        <v>131</v>
-      </c>
-      <c r="V7">
-        <v>50</v>
-      </c>
       <c r="W7">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="X7">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="Y7">
         <v>0.5</v>
-      </c>
-      <c r="X7">
-        <v>0.25</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1278,55 +1281,55 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>50</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V8">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="W8">
-        <v>1.123595505617978</v>
+        <v>0.5</v>
       </c>
       <c r="X8">
-        <v>0.7194244604316546</v>
+        <v>0.25</v>
       </c>
       <c r="Y8">
-        <v>0.5617977528089888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1334,76 +1337,55 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>48</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>50</v>
       </c>
       <c r="J9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
         <v>116</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O9" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R9" t="s">
-        <v>143</v>
-      </c>
-      <c r="S9" t="s">
-        <v>145</v>
-      </c>
-      <c r="T9" t="s">
-        <v>146</v>
-      </c>
-      <c r="U9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="V9">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="W9">
-        <v>0.975609756097561</v>
+        <v>1.123595505617978</v>
       </c>
       <c r="X9">
-        <v>0.6936416184971098</v>
+        <v>0.7194244604316546</v>
       </c>
       <c r="Y9">
-        <v>0.4065040650406504</v>
+        <v>0.5617977528089888</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1411,73 +1393,76 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>35</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I10">
         <v>50</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
         <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="S10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V10">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="W10">
-        <v>0.9090909090909091</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="X10">
-        <v>0.625</v>
+        <v>0.6936416184971098</v>
       </c>
       <c r="Y10">
-        <v>0.4545454545454545</v>
+        <v>0.4065040650406504</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1485,22 +1470,22 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
         <v>30</v>
-      </c>
-      <c r="H11">
-        <v>25</v>
       </c>
       <c r="I11">
         <v>50</v>
@@ -1509,31 +1494,49 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
         <v>117</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="P11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S11" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" t="s">
+        <v>147</v>
+      </c>
+      <c r="U11" t="s">
+        <v>149</v>
       </c>
       <c r="V11">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="W11">
-        <v>1.052631578947368</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="X11">
-        <v>0.6896551724137931</v>
+        <v>0.625</v>
       </c>
       <c r="Y11">
-        <v>0.5263157894736842</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1541,13 +1544,13 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>40</v>
@@ -1565,19 +1568,19 @@
         <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N12" t="s">
         <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V12">
         <v>95</v>
@@ -1597,55 +1600,55 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I13">
         <v>50</v>
       </c>
       <c r="J13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
         <v>135</v>
       </c>
       <c r="V13">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="W13">
-        <v>1.046511627906977</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="X13">
-        <v>0.6617647058823529</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Y13">
-        <v>0.5813953488372093</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1653,13 +1656,13 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>38</v>
@@ -1677,19 +1680,19 @@
         <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="V14">
         <v>86</v>
@@ -1709,13 +1712,13 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>38</v>
@@ -1733,19 +1736,19 @@
         <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V15">
         <v>86</v>
@@ -1765,76 +1768,55 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>50</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
         <v>132</v>
       </c>
-      <c r="P16" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>141</v>
-      </c>
-      <c r="R16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S16" t="s">
-        <v>145</v>
-      </c>
-      <c r="T16" t="s">
-        <v>146</v>
-      </c>
-      <c r="U16" t="s">
-        <v>148</v>
-      </c>
       <c r="V16">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="W16">
-        <v>1.030927835051546</v>
+        <v>1.046511627906977</v>
       </c>
       <c r="X16">
-        <v>0.6802721088435374</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="Y16">
-        <v>0.5154639175257731</v>
+        <v>0.5813953488372093</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1842,28 +1824,31 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I17">
         <v>50</v>
       </c>
       <c r="J17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
         <v>105</v>
@@ -1872,25 +1857,43 @@
         <v>117</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="P17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>142</v>
+      </c>
+      <c r="R17" t="s">
+        <v>144</v>
+      </c>
+      <c r="S17" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" t="s">
+        <v>147</v>
+      </c>
+      <c r="U17" t="s">
+        <v>149</v>
       </c>
       <c r="V17">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>1.030927835051546</v>
       </c>
       <c r="X17">
-        <v>0.6153846153846154</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="Y17">
-        <v>0.625</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1898,73 +1901,55 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
         <v>20</v>
-      </c>
-      <c r="H18">
-        <v>25</v>
       </c>
       <c r="I18">
         <v>50</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
-      </c>
-      <c r="P18" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>141</v>
-      </c>
-      <c r="R18" t="s">
-        <v>143</v>
-      </c>
-      <c r="S18" t="s">
-        <v>145</v>
-      </c>
-      <c r="T18" t="s">
-        <v>146</v>
-      </c>
-      <c r="U18" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="V18">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W18">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0.8</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Y18">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1972,13 +1957,13 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>30</v>
@@ -1987,40 +1972,58 @@
         <v>20</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s">
         <v>117</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="P19" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>142</v>
+      </c>
+      <c r="R19" t="s">
+        <v>144</v>
+      </c>
+      <c r="S19" t="s">
+        <v>146</v>
+      </c>
+      <c r="T19" t="s">
+        <v>147</v>
+      </c>
+      <c r="U19" t="s">
+        <v>149</v>
       </c>
       <c r="V19">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W19">
-        <v>1.071428571428571</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="X19">
-        <v>0.6521739130434783</v>
+        <v>0.8</v>
       </c>
       <c r="Y19">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2028,73 +2031,55 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I20">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J20">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O20" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" t="s">
         <v>138</v>
       </c>
-      <c r="Q20" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" t="s">
-        <v>139</v>
-      </c>
-      <c r="S20" t="s">
-        <v>142</v>
-      </c>
-      <c r="T20" t="s">
-        <v>147</v>
-      </c>
-      <c r="U20" t="s">
-        <v>149</v>
-      </c>
       <c r="V20">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="W20">
-        <v>0.847457627118644</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="X20">
-        <v>0.495049504950495</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="Y20">
-        <v>0.711864406779661</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2102,73 +2087,73 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <v>25</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I21">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J21">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s">
         <v>116</v>
       </c>
       <c r="M21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="S21" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="T21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V21">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="X21">
-        <v>0.6</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="Y21">
-        <v>0.6666666666666666</v>
+        <v>0.711864406779661</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2176,13 +2161,13 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -2200,31 +2185,31 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T22" t="s">
         <v>147</v>
@@ -2250,73 +2235,73 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J23">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>142</v>
+      </c>
+      <c r="R23" t="s">
+        <v>145</v>
+      </c>
+      <c r="S23" t="s">
         <v>140</v>
       </c>
-      <c r="Q23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R23" t="s">
-        <v>139</v>
-      </c>
-      <c r="S23" t="s">
-        <v>142</v>
-      </c>
       <c r="T23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V23">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W23">
-        <v>0.7017543859649122</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0.4347826086956522</v>
+        <v>0.6</v>
       </c>
       <c r="Y23">
-        <v>0.6140350877192983</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2324,55 +2309,73 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J24">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s">
         <v>116</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="P24" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>142</v>
+      </c>
+      <c r="R24" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" t="s">
+        <v>143</v>
+      </c>
+      <c r="T24" t="s">
+        <v>147</v>
+      </c>
+      <c r="U24" t="s">
+        <v>149</v>
       </c>
       <c r="V24">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="X24">
-        <v>0.625</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="Y24">
-        <v>0.6</v>
+        <v>0.6140350877192983</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2380,22 +2383,22 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I25">
         <v>30</v>
@@ -2404,49 +2407,31 @@
         <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O25" t="s">
-        <v>131</v>
-      </c>
-      <c r="P25" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>141</v>
-      </c>
-      <c r="R25" t="s">
-        <v>144</v>
-      </c>
-      <c r="S25" t="s">
-        <v>139</v>
-      </c>
-      <c r="T25" t="s">
-        <v>146</v>
-      </c>
-      <c r="U25" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="V25">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W25">
-        <v>1.111111111111111</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="Y25">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2457,10 +2442,10 @@
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -2469,40 +2454,58 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O26" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="P26" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>142</v>
+      </c>
+      <c r="R26" t="s">
+        <v>145</v>
+      </c>
+      <c r="S26" t="s">
+        <v>140</v>
+      </c>
+      <c r="T26" t="s">
+        <v>147</v>
+      </c>
+      <c r="U26" t="s">
+        <v>149</v>
       </c>
       <c r="V26">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W26">
-        <v>0.8571428571428571</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="X26">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Y26">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2513,49 +2516,49 @@
         <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O27" t="s">
         <v>132</v>
       </c>
       <c r="V27">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="W27">
-        <v>1.071428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X27">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="Y27">
         <v>0.7142857142857143</v>
@@ -2569,70 +2572,52 @@
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J28">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
-      </c>
-      <c r="P28" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>141</v>
-      </c>
-      <c r="R28" t="s">
-        <v>113</v>
-      </c>
-      <c r="S28" t="s">
-        <v>138</v>
-      </c>
-      <c r="T28" t="s">
-        <v>146</v>
-      </c>
-      <c r="U28" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="V28">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="W28">
-        <v>1.25</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="X28">
-        <v>0.851063829787234</v>
+        <v>0.625</v>
       </c>
       <c r="Y28">
-        <v>0.46875</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2646,49 +2631,67 @@
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I29">
         <v>15</v>
       </c>
       <c r="J29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O29" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="P29" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>142</v>
+      </c>
+      <c r="R29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S29" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" t="s">
+        <v>147</v>
+      </c>
+      <c r="U29" t="s">
+        <v>149</v>
       </c>
       <c r="V29">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
-        <v>0.5714285714285714</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="Y29">
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2699,13 +2702,13 @@
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -2714,10 +2717,10 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s">
         <v>111</v>
@@ -2726,25 +2729,25 @@
         <v>116</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="V30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W30">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Y30">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2755,70 +2758,52 @@
         <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
         <v>3</v>
       </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
       <c r="I31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K31" t="s">
         <v>112</v>
       </c>
       <c r="L31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O31" t="s">
-        <v>133</v>
-      </c>
-      <c r="P31" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>141</v>
-      </c>
-      <c r="R31" t="s">
-        <v>143</v>
-      </c>
-      <c r="S31" t="s">
-        <v>139</v>
-      </c>
-      <c r="T31" t="s">
-        <v>147</v>
-      </c>
-      <c r="U31" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="V31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X31">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2829,52 +2814,70 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L32" t="s">
         <v>116</v>
       </c>
       <c r="M32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O32" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="P32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>142</v>
+      </c>
+      <c r="R32" t="s">
+        <v>144</v>
+      </c>
+      <c r="S32" t="s">
+        <v>140</v>
+      </c>
+      <c r="T32" t="s">
+        <v>148</v>
+      </c>
+      <c r="U32" t="s">
+        <v>150</v>
       </c>
       <c r="V32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X32">
-        <v>0.5555555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y32">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -2885,49 +2888,49 @@
         <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>8</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V33">
         <v>10</v>
       </c>
       <c r="W33">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Y33">
         <v>0.8</v>
@@ -2941,55 +2944,52 @@
         <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
       </c>
       <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
         <v>2</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K34" t="s">
         <v>114</v>
       </c>
       <c r="L34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V34">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="X34">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y34">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3000,54 +3000,113 @@
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
         <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35">
         <v>1</v>
       </c>
       <c r="X35">
+        <v>0.6</v>
+      </c>
+      <c r="Y35">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M36" t="s">
+        <v>120</v>
+      </c>
+      <c r="N36" t="s">
+        <v>126</v>
+      </c>
+      <c r="O36" t="s">
+        <v>132</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
         <v>0.5</v>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <v>1</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="152">
   <si>
     <t>name</t>
   </si>
@@ -91,6 +91,9 @@
     <t>AngrySheep</t>
   </si>
   <si>
+    <t>GreenBasilisk</t>
+  </si>
+  <si>
     <t>Drax</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>Rex</t>
   </si>
   <si>
-    <t>GreenBasilisk</t>
-  </si>
-  <si>
     <t>Basilisk</t>
   </si>
   <si>
@@ -196,6 +196,9 @@
     <t xml:space="preserve"> "AngrySheep</t>
   </si>
   <si>
+    <t xml:space="preserve"> "GreenBasilisk</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Drax</t>
   </si>
   <si>
@@ -223,9 +226,6 @@
     <t xml:space="preserve"> "Rex</t>
   </si>
   <si>
-    <t xml:space="preserve"> "GreenBasilisk</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Basilisk</t>
   </si>
   <si>
@@ -325,6 +325,9 @@
     <t xml:space="preserve"> 1</t>
   </si>
   <si>
+    <t xml:space="preserve"> 150</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 125</t>
   </si>
   <si>
@@ -364,6 +367,9 @@
     <t xml:space="preserve"> 0</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterAttack2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "HumanAttack1</t>
   </si>
   <si>
@@ -373,15 +379,15 @@
     <t xml:space="preserve"> "AngryCat</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterAttack2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
     <t xml:space="preserve"> "PainSqueek</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterHurt2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
@@ -391,12 +397,12 @@
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterHurt2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.99</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.2</t>
   </si>
   <si>
@@ -406,22 +412,19 @@
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.95</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.85</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.greenFluence</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.greenShine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL.greenFluence</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.silver</t>
@@ -939,13 +942,13 @@
         <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V2">
         <v>100</v>
@@ -968,22 +971,22 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
         <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
       </c>
       <c r="J3">
         <v>150</v>
@@ -992,46 +995,28 @@
         <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>142</v>
-      </c>
-      <c r="R3" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3">
         <v>145</v>
       </c>
-      <c r="T3" t="s">
-        <v>147</v>
-      </c>
-      <c r="U3" t="s">
-        <v>149</v>
-      </c>
-      <c r="V3">
-        <v>150</v>
-      </c>
       <c r="W3">
-        <v>1</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="X3">
-        <v>0.6</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="Y3">
-        <v>0.6666666666666666</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1051,43 +1036,61 @@
         <v>60</v>
       </c>
       <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
         <v>40</v>
       </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
       <c r="I4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4" t="s">
         <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N4" t="s">
         <v>127</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="P4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U4" t="s">
+        <v>150</v>
       </c>
       <c r="V4">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="W4">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.6172839506172839</v>
+        <v>0.6</v>
       </c>
       <c r="Y4">
-        <v>0.4464285714285715</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1098,7 +1101,7 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>100</v>
@@ -1107,43 +1110,43 @@
         <v>60</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V5">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="X5">
-        <v>0.25</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.4464285714285715</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1154,70 +1157,52 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>100</v>
       </c>
       <c r="F6">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>60</v>
       </c>
       <c r="J6">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O6" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" t="s">
-        <v>143</v>
-      </c>
-      <c r="S6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" t="s">
-        <v>147</v>
-      </c>
-      <c r="U6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="V6">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="W6">
-        <v>0.8802816901408451</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
-        <v>0.6188118811881188</v>
+        <v>0.25</v>
       </c>
       <c r="Y6">
-        <v>0.4225352112676056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1228,52 +1213,70 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>100</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>60</v>
       </c>
       <c r="J7">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
         <v>119</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O7" t="s">
         <v>133</v>
       </c>
+      <c r="P7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" t="s">
+        <v>144</v>
+      </c>
+      <c r="S7" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" t="s">
+        <v>148</v>
+      </c>
+      <c r="U7" t="s">
+        <v>150</v>
+      </c>
       <c r="V7">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="W7">
-        <v>0.9166666666666666</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="X7">
-        <v>0.6111111111111112</v>
+        <v>0.6188118811881188</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>0.4225352112676056</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1284,7 +1287,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
         <v>100</v>
@@ -1293,43 +1296,43 @@
         <v>50</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
         <v>117</v>
       </c>
       <c r="M8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="V8">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="W8">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="X8">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="Y8">
         <v>0.5</v>
-      </c>
-      <c r="X8">
-        <v>0.25</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1340,52 +1343,52 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
         <v>100</v>
       </c>
       <c r="F9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>50</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V9">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="W9">
-        <v>1.123595505617978</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
-        <v>0.7194244604316546</v>
+        <v>0.25</v>
       </c>
       <c r="Y9">
-        <v>0.5617977528089888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1396,10 +1399,7 @@
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>100</v>
@@ -1408,61 +1408,43 @@
         <v>48</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>50</v>
       </c>
       <c r="J10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
-      </c>
-      <c r="P10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>142</v>
-      </c>
-      <c r="R10" t="s">
-        <v>144</v>
-      </c>
-      <c r="S10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" t="s">
-        <v>147</v>
-      </c>
-      <c r="U10" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="V10">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="W10">
-        <v>0.975609756097561</v>
+        <v>1.123595505617978</v>
       </c>
       <c r="X10">
-        <v>0.6936416184971098</v>
+        <v>0.7194244604316546</v>
       </c>
       <c r="Y10">
-        <v>0.4065040650406504</v>
+        <v>0.5617977528089888</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1473,70 +1455,73 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>100</v>
       </c>
       <c r="F11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>35</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>50</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="S11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="T11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V11">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="W11">
-        <v>0.9090909090909091</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="X11">
-        <v>0.625</v>
+        <v>0.6936416184971098</v>
       </c>
       <c r="Y11">
-        <v>0.4545454545454545</v>
+        <v>0.4065040650406504</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1547,19 +1532,19 @@
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>100</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12">
         <v>30</v>
-      </c>
-      <c r="H12">
-        <v>25</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -1568,31 +1553,49 @@
         <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s">
         <v>119</v>
       </c>
       <c r="M12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="P12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>143</v>
+      </c>
+      <c r="R12" t="s">
+        <v>141</v>
+      </c>
+      <c r="S12" t="s">
+        <v>144</v>
+      </c>
+      <c r="T12" t="s">
+        <v>148</v>
+      </c>
+      <c r="U12" t="s">
+        <v>150</v>
       </c>
       <c r="V12">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="W12">
-        <v>1.052631578947368</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="X12">
-        <v>0.6896551724137931</v>
+        <v>0.625</v>
       </c>
       <c r="Y12">
-        <v>0.5263157894736842</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1624,19 +1627,19 @@
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V13">
         <v>95</v>
@@ -1680,19 +1683,19 @@
         <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V14">
         <v>86</v>
@@ -1736,19 +1739,19 @@
         <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V15">
         <v>86</v>
@@ -1792,19 +1795,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V16">
         <v>86</v>
@@ -1851,37 +1854,37 @@
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V17">
         <v>97</v>
@@ -1925,19 +1928,19 @@
         <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V18">
         <v>80</v>
@@ -1981,37 +1984,37 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V19">
         <v>75</v>
@@ -2055,19 +2058,19 @@
         <v>75</v>
       </c>
       <c r="K20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V20">
         <v>70</v>
@@ -2111,37 +2114,37 @@
         <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V21">
         <v>59</v>
@@ -2185,37 +2188,37 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V22">
         <v>60</v>
@@ -2259,37 +2262,37 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V23">
         <v>60</v>
@@ -2333,37 +2336,37 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>143</v>
+      </c>
+      <c r="R24" t="s">
         <v>141</v>
       </c>
-      <c r="Q24" t="s">
-        <v>142</v>
-      </c>
-      <c r="R24" t="s">
-        <v>140</v>
-      </c>
       <c r="S24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V24">
         <v>57</v>
@@ -2383,10 +2386,10 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>100</v>
@@ -2407,19 +2410,19 @@
         <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V25">
         <v>50</v>
@@ -2463,37 +2466,37 @@
         <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V26">
         <v>45</v>
@@ -2537,19 +2540,19 @@
         <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V27">
         <v>35</v>
@@ -2593,19 +2596,19 @@
         <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V28">
         <v>28</v>
@@ -2649,37 +2652,37 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V29">
         <v>32</v>
@@ -2723,19 +2726,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V30">
         <v>20</v>
@@ -2779,19 +2782,19 @@
         <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V31">
         <v>18</v>
@@ -2835,37 +2838,37 @@
         <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V32">
         <v>20</v>
@@ -2909,19 +2912,19 @@
         <v>10</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V33">
         <v>10</v>
@@ -2965,19 +2968,19 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V34">
         <v>10</v>
@@ -3024,19 +3027,19 @@
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V35">
         <v>3</v>
@@ -3083,19 +3086,19 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V36">
         <v>1</v>
